--- a/Data/zcb elastic 0.25 hedge.xlsx
+++ b/Data/zcb elastic 0.25 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-26127.11271225877</v>
+        <v>-31979.51831915893</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-23564.60063805338</v>
+        <v>-29675.17236476245</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-22554.22725078964</v>
+        <v>-28541.50751448833</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-21258.56164105562</v>
+        <v>-27364.78807571756</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-20066.66796337137</v>
+        <v>-26254.83062189759</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-19693.40928766938</v>
+        <v>-25774.00777155323</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-18943.78909520793</v>
+        <v>-24772.94806581808</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-18303.12987696857</v>
+        <v>-23969.94208163404</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-17469.85788853806</v>
+        <v>-23237.79073749926</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-16859.11517541238</v>
+        <v>-22517.00141079549</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-16201.12205185727</v>
+        <v>-21875.21986020069</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-15646.33042044801</v>
+        <v>-21324.22392504305</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-14879.97763967079</v>
+        <v>-20332.28518410626</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-14430.83519477628</v>
+        <v>-19879.24930508003</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-13767.88224457989</v>
+        <v>-19135.25352926774</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-13085.32948447707</v>
+        <v>-18437.344857445</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-12341.83932181618</v>
+        <v>-17737.53566067566</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-12014.79171132606</v>
+        <v>-17328.83460617117</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-11372.41754937287</v>
+        <v>-16698.4076393118</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-10858.72434928896</v>
+        <v>-16213.4853797111</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-10596.78021781203</v>
+        <v>-15745.29953477178</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-10146.41530727695</v>
+        <v>-15398.10188957255</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-9302.523058112854</v>
+        <v>-14627.56794739512</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9084.898313866568</v>
+        <v>-215661.7161396788</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-8754.629313965333</v>
+        <v>-12999.18990177887</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-8179.604486106316</v>
+        <v>-12508.43690109399</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-7993.640872781083</v>
+        <v>-12118.7501374421</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-7533.112367190623</v>
+        <v>-11726.03531327968</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-6901.211148712944</v>
+        <v>-11178.05404885921</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-6725.032898576386</v>
+        <v>-10872.65592524317</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-6176.26330972533</v>
+        <v>-10578.7190628573</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5812.004213593416</v>
+        <v>-10199.28295370525</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5590.011329445562</v>
+        <v>-9938.720624430167</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5120.524879672289</v>
+        <v>-9607.17012376375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-4694.847699988384</v>
+        <v>-9268.310007023474</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>34996.31098751134</v>
+        <v>-188982.9163265907</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4246.150032683816</v>
+        <v>-7943.686332193555</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-3990.62328358998</v>
+        <v>-7686.160191021275</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-3570.813627410167</v>
+        <v>-7348.802132857939</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-3411.661480194581</v>
+        <v>-7125.644833721276</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-3165.527703504568</v>
+        <v>-6709.364580459127</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-2882.120901058313</v>
+        <v>-6376.101538403375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-2355.413719725849</v>
+        <v>-6102.050299528518</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-2178.179381819274</v>
+        <v>-5679.96188129256</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-2053.032210558711</v>
+        <v>-5505.125459816722</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-1587.186982340652</v>
+        <v>-5282.912077426035</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-1259.530803218315</v>
+        <v>-4961.277692994588</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1063.226196902148</v>
+        <v>-4679.123504508557</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-883.3753704248414</v>
+        <v>-4569.93978320736</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-642.1737805833684</v>
+        <v>-4305.221898026329</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-635.486188394343</v>
+        <v>-4141.267121655793</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-456.9556576201416</v>
+        <v>-4037.064170551872</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-328.1285591247333</v>
+        <v>-3829.748390607429</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-255.4553324680219</v>
+        <v>-3744.175512150754</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-307.167275573915</v>
+        <v>-3608.933703231899</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-209.3209758339333</v>
+        <v>-3627.209648582752</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-127.8650779542056</v>
+        <v>-3419.525381391386</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-73.57563642230902</v>
+        <v>-3354.296676490802</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>90.89500898523217</v>
+        <v>-3249.062821713228</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>292460.9383678579</v>
+        <v>-492805.396477449</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-984.0892362563582</v>
+        <v>-2008.433709628834</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-893.1400481731758</v>
+        <v>-1984.70255096019</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-792.9932613618239</v>
+        <v>-1895.231266811868</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-620.8097045402591</v>
+        <v>-1813.74477997355</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-511.6622364649581</v>
+        <v>-1708.870533386901</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-575.6813841624521</v>
+        <v>-1647.203741668826</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-281.8910410867693</v>
+        <v>-1620.448806844028</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>10.44140014758334</v>
+        <v>-1500.604235838677</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-49.82799141390691</v>
+        <v>-1417.533004610035</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-96.01447678783204</v>
+        <v>-1360.31100661603</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>320.9375494600071</v>
+        <v>-1254.115864256713</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>324.9771977728751</v>
+        <v>-1258.835398411274</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>332.621664234259</v>
+        <v>-1172.552148566515</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>295.8611263865005</v>
+        <v>-1104.468271465716</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>453.9918847423817</v>
+        <v>-1041.071901502091</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>399.5857114753747</v>
+        <v>-964.9667324323632</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>514.1711821059936</v>
+        <v>-936.6267235567715</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>571.8214344741156</v>
+        <v>-886.7329849014045</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>531.7971187404064</v>
+        <v>-831.6649035382333</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>580.2634909508234</v>
+        <v>-887.5563350430845</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>495.5904697440616</v>
+        <v>-780.1613023910799</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>632.6553026507855</v>
+        <v>-812.2964853922566</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>655.6419199966269</v>
+        <v>-780.7531444978007</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>114892.3577275944</v>
+        <v>-121338.3242643308</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>116.4900196825963</v>
+        <v>-509.4825996016584</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>285.2632171489622</v>
+        <v>-488.3184921756162</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>400.3601622238541</v>
+        <v>-512.5173460607379</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>349.9423756548811</v>
+        <v>-446.2672848340399</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>348.334532817166</v>
+        <v>-400.4181110559595</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>378.944076309348</v>
+        <v>-384.1593652074806</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>344.1245348207402</v>
+        <v>-372.0701802928943</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>372.0447059017814</v>
+        <v>-382.8220310099864</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>404.9398531455161</v>
+        <v>-318.4453788135102</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>355.338365543357</v>
+        <v>-273.4270043707813</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>385.7487980982005</v>
+        <v>-303.2102149893779</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>54250.19993808598</v>
+        <v>-91398.20775455504</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>309.3705732966584</v>
+        <v>-251.6339522266805</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>317.3333071459138</v>
+        <v>-262.5301041289111</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>384.7572917982005</v>
+        <v>-187.3307095641383</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>405.5999832468851</v>
+        <v>-132.4602548652631</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>274.2937743760837</v>
+        <v>-129.6533425258146</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>382.1689194305488</v>
+        <v>-137.8701151709826</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>413.8503618683366</v>
+        <v>-145.517377941641</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>352.561438662232</v>
+        <v>-90.34973701781897</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>406.0236822753188</v>
+        <v>-98.36528144856936</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>412.6818798851313</v>
+        <v>-58.79652130063079</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>416.9479640109831</v>
+        <v>-14.66783110363668</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>478.1883239558023</v>
+        <v>-42.73484294347989</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>489.7204648007132</v>
+        <v>-40.26995791148486</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>539.5620662424388</v>
+        <v>52.76494192762659</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>475.5373120068744</v>
+        <v>-14.06895970274713</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>358.7562953898017</v>
+        <v>-3.326249249383479</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>401.2787332268646</v>
+        <v>3.601855884323592</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>462.1686710218261</v>
+        <v>-10.67501312338964</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>450.8763109209137</v>
+        <v>3.118716399244875</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>390.8132212625992</v>
+        <v>25.18099384035142</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>427.3203775379333</v>
+        <v>20.44690438021929</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>472.3953246636051</v>
+        <v>33.3806247323778</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>402.3990172316928</v>
+        <v>-29.42562791528739</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>127739.7441057523</v>
+        <v>-83451.87659675015</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb elastic 0.25 hedge.xlsx
+++ b/Data/zcb elastic 0.25 hedge.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hedge withzcb" sheetId="1" r:id="rId1"/>
+    <sheet name="Hedge with zcb" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-31979.51831915893</v>
+        <v>-7617.04699957147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-29675.17236476245</v>
+        <v>-7588.298621002632</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-28541.50751448833</v>
+        <v>-7560.67048679441</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-27364.78807571756</v>
+        <v>-7531.498329409937</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-26254.83062189759</v>
+        <v>-7474.20810948179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-25774.00777155323</v>
+        <v>-7442.985759427377</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-24772.94806581808</v>
+        <v>-7407.477201178201</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-23969.94208163404</v>
+        <v>-7351.247488580348</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-23237.79073749926</v>
+        <v>-7317.698966247324</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-22517.00141079549</v>
+        <v>-7296.128544676286</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-21875.21986020069</v>
+        <v>-7256.941733496546</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-21324.22392504305</v>
+        <v>-7219.183590858936</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-20332.28518410626</v>
+        <v>-7192.763757233323</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-19879.24930508003</v>
+        <v>-7152.179194535567</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-19135.25352926774</v>
+        <v>-7137.748906151825</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-18437.344857445</v>
+        <v>-7087.983587676663</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-17737.53566067566</v>
+        <v>-7042.250871777215</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-17328.83460617117</v>
+        <v>-7034.960003566261</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-16698.4076393118</v>
+        <v>-6985.329156341277</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-16213.4853797111</v>
+        <v>-6955.988533876529</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-15745.29953477178</v>
+        <v>-6922.703594448624</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-15398.10188957255</v>
+        <v>-6895.953652503685</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-14627.56794739512</v>
+        <v>-6851.354149954303</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-215661.7161396788</v>
+        <v>-224427.7510602832</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-12999.18990177887</v>
+        <v>-5817.596554691324</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-12508.43690109399</v>
+        <v>-5810.89626928303</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-12118.7501374421</v>
+        <v>-5779.398829638171</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-11726.03531327968</v>
+        <v>-5761.298554634015</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-11178.05404885921</v>
+        <v>-5738.160943626098</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-10872.65592524317</v>
+        <v>-5705.581796911718</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-10578.7190628573</v>
+        <v>-5680.675438111311</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-10199.28295370525</v>
+        <v>-5662.1768177948</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-9938.720624430167</v>
+        <v>-5631.126068849233</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-9607.17012376375</v>
+        <v>-5627.250694367001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-9268.310007023474</v>
+        <v>-5608.229030288617</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-188982.9163265907</v>
+        <v>-223370.6362439556</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-7943.686332193555</v>
+        <v>-4728.370955091216</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-7686.160191021275</v>
+        <v>-4690.299553044421</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-7348.802132857939</v>
+        <v>-4658.87834602624</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-7125.644833721276</v>
+        <v>-4653.989120892697</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-6709.364580459127</v>
+        <v>-4624.284378133544</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-6376.101538403375</v>
+        <v>-4615.212551227574</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-6102.050299528518</v>
+        <v>-4586.212863650435</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-5679.96188129256</v>
+        <v>-4569.820169318095</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-5505.125459816722</v>
+        <v>-4574.036927073273</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-5282.912077426035</v>
+        <v>-4521.042183716038</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4961.277692994588</v>
+        <v>-4515.122566889871</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4679.123504508557</v>
+        <v>-4485.834223125903</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4569.93978320736</v>
+        <v>-4461.190811690208</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4305.221898026329</v>
+        <v>-4434.825821569748</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4141.267121655793</v>
+        <v>-4426.503482099235</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4037.064170551872</v>
+        <v>-4431.455773804465</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-3829.748390607429</v>
+        <v>-4377.776712275397</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-3744.175512150754</v>
+        <v>-4394.824921516408</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-3608.933703231899</v>
+        <v>-4375.03193808331</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-3627.209648582752</v>
+        <v>-4342.423280855227</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-3419.525381391386</v>
+        <v>-4336.542466092968</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-3354.296676490802</v>
+        <v>-4328.203071802794</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-3249.062821713228</v>
+        <v>-4298.88197804827</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-492805.396477449</v>
+        <v>-781130.509244305</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-2008.433709628834</v>
+        <v>-1914.087776997609</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1984.70255096019</v>
+        <v>-1869.164123680392</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1895.231266811868</v>
+        <v>-1874.866984247343</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1813.74477997355</v>
+        <v>-1876.27610243634</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1708.870533386901</v>
+        <v>-1827.271172254786</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1647.203741668826</v>
+        <v>-1842.225127579563</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1620.448806844028</v>
+        <v>-1783.521301646</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1500.604235838677</v>
+        <v>-1774.176670821446</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1417.533004610035</v>
+        <v>-1746.600247141336</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1360.31100661603</v>
+        <v>-1736.628604519331</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1254.115864256713</v>
+        <v>-1719.858417281049</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1258.835398411274</v>
+        <v>-1690.308367891274</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1172.552148566515</v>
+        <v>-1700.507481587672</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1104.468271465716</v>
+        <v>-1654.67649385704</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1041.071901502091</v>
+        <v>-1659.580741145644</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-964.9667324323632</v>
+        <v>-1630.449773421754</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-936.6267235567715</v>
+        <v>-1619.49850490421</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-886.7329849014045</v>
+        <v>-1575.83738168671</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-831.6649035382333</v>
+        <v>-1576.796879137534</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-887.5563350430845</v>
+        <v>-1550.454720828661</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-780.1613023910799</v>
+        <v>-1551.534626330719</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-812.2964853922566</v>
+        <v>-1538.322675874589</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-780.7531444978007</v>
+        <v>-1497.703646103432</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-121338.3242643308</v>
+        <v>-235229.0198176883</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-509.4825996016584</v>
+        <v>-943.9236716575465</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-488.3184921756162</v>
+        <v>-905.0731192231651</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-512.5173460607379</v>
+        <v>-885.5858522200264</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-446.2672848340399</v>
+        <v>-877.8659841823887</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-400.4181110559595</v>
+        <v>-832.4040565885035</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-384.1593652074806</v>
+        <v>-859.569843804419</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-372.0701802928943</v>
+        <v>-810.307639743969</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-382.8220310099864</v>
+        <v>-816.6176074696385</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-318.4453788135102</v>
+        <v>-803.2042212450203</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-273.4270043707813</v>
+        <v>-748.9609607342652</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-303.2102149893779</v>
+        <v>-737.2577685621496</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-91398.20775455504</v>
+        <v>-144720.647060957</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-251.6339522266805</v>
+        <v>-554.7685849450219</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-262.5301041289111</v>
+        <v>-519.8905208997523</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-187.3307095641383</v>
+        <v>-508.2126649320369</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-132.4602548652631</v>
+        <v>-487.3569692256493</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-129.6533425258146</v>
+        <v>-494.0940935274938</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-137.8701151709826</v>
+        <v>-436.100724839966</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-145.517377941641</v>
+        <v>-430.7443410495528</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-90.34973701781897</v>
+        <v>-400.5923201520692</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-98.36528144856936</v>
+        <v>-368.4109549611602</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-58.79652130063079</v>
+        <v>-360.5045124696801</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-14.66783110363668</v>
+        <v>-349.7170867860659</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-42.73484294347989</v>
+        <v>-317.6790501135226</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-40.26995791148486</v>
+        <v>-283.8480826376658</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>52.76494192762659</v>
+        <v>-241.0219484461261</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-14.06895970274713</v>
+        <v>-206.0464387012174</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-3.326249249383479</v>
+        <v>-200.9369926211822</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>3.601855884323592</v>
+        <v>-141.2173729878966</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-10.67501312338964</v>
+        <v>-134.6035056886294</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>3.118716399244875</v>
+        <v>-54.23358532861474</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>25.18099384035142</v>
+        <v>-46.86929778843012</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>20.44690438021929</v>
+        <v>19.32812075833269</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>33.3806247323778</v>
+        <v>53.57937536370223</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-29.42562791528739</v>
+        <v>59.17814271532538</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-83451.87659675015</v>
+        <v>-67043.43989004758</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb elastic 0.25 hedge.xlsx
+++ b/Data/zcb elastic 0.25 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-7617.04699957147</v>
+        <v>-27894.13989066711</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-7588.298621002632</v>
+        <v>-28524.43719377226</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-7560.67048679441</v>
+        <v>-28984.0143975277</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-7531.498329409937</v>
+        <v>-29352.78373015683</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-7474.20810948179</v>
+        <v>-29510.36638215934</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-7442.985759427377</v>
+        <v>-29280.72353732356</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7407.477201178201</v>
+        <v>-29101.08657010043</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-7351.247488580348</v>
+        <v>-28941.0286030461</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7317.698966247324</v>
+        <v>-28598.00213646897</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-7296.128544676286</v>
+        <v>-28163.18763539756</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-7256.941733496546</v>
+        <v>-27668.91809631088</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-7219.183590858936</v>
+        <v>-27257.09346647202</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-7192.763757233323</v>
+        <v>-26713.79817441008</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-7152.179194535567</v>
+        <v>-26227.97638764633</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-7137.748906151825</v>
+        <v>-25242.31689318252</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-7087.983587676663</v>
+        <v>-24330.44054746078</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-7042.250871777215</v>
+        <v>-23960.75580560556</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-7034.960003566261</v>
+        <v>-23266.02456534509</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-6985.329156341277</v>
+        <v>-22681.8750633919</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-6955.988533876529</v>
+        <v>-22054.37361651172</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-6922.703594448624</v>
+        <v>-21392.00747811058</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-6895.953652503685</v>
+        <v>-20697.54860294413</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-6851.354149954303</v>
+        <v>-20111.6698054041</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-224427.7510602832</v>
+        <v>-126550.3179071406</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-5817.596554691324</v>
+        <v>-15947.5001896317</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-5810.89626928303</v>
+        <v>-15772.37467427176</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-5779.398829638171</v>
+        <v>-15485.82236081552</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-5761.298554634015</v>
+        <v>-14964.30148456203</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-5738.160943626098</v>
+        <v>-14727.20247837894</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-5705.581796911718</v>
+        <v>-14252.24272126492</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-5680.675438111311</v>
+        <v>-13975.95266424482</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5662.1768177948</v>
+        <v>-13462.86067258226</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5631.126068849233</v>
+        <v>-13222.30386156332</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5627.250694367001</v>
+        <v>-12893.20792680715</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-5608.229030288617</v>
+        <v>-12495.39112002514</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-223370.6362439556</v>
+        <v>-118234.7024857163</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4728.370955091216</v>
+        <v>-10045.47470118904</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4690.299553044421</v>
+        <v>-9758.142726907583</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-4658.87834602624</v>
+        <v>-9558.966814590054</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-4653.989120892697</v>
+        <v>-9420.931407742517</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-4624.284378133544</v>
+        <v>-9478.236028079018</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-4615.212551227574</v>
+        <v>-9203.289072032374</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-4586.212863650435</v>
+        <v>-8865.656706038817</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-4569.820169318095</v>
+        <v>-8725.584038028621</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-4574.036927073273</v>
+        <v>-8566.323432592002</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-4521.042183716038</v>
+        <v>-8440.642693928516</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4515.122566889871</v>
+        <v>-8326.088534889279</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4485.834223125903</v>
+        <v>-8124.465248824822</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4461.190811690208</v>
+        <v>-7811.984085581935</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4434.825821569748</v>
+        <v>-7701.432001858221</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4426.503482099235</v>
+        <v>-7608.965766902613</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4431.455773804465</v>
+        <v>-7448.037043498977</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-4377.776712275397</v>
+        <v>-7353.988482613428</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-4394.824921516408</v>
+        <v>-7239.920726171421</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-4375.03193808331</v>
+        <v>-7032.652565670563</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-4342.423280855227</v>
+        <v>-6807.599562519201</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-4336.542466092968</v>
+        <v>-6664.9590670509</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-4328.203071802794</v>
+        <v>-6594.914767035019</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-4298.88197804827</v>
+        <v>-6486.455743916787</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-781130.509244305</v>
+        <v>-375344.5032819557</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1914.087776997609</v>
+        <v>-2470.07497415417</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1869.164123680392</v>
+        <v>-2416.721970237873</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1874.866984247343</v>
+        <v>-2389.344285182422</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1876.27610243634</v>
+        <v>-2337.262676666358</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1827.271172254786</v>
+        <v>-2283.013358065346</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1842.225127579563</v>
+        <v>-2273.579663649796</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1783.521301646</v>
+        <v>-2218.133754271776</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1774.176670821446</v>
+        <v>-2150.860337135711</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1746.600247141336</v>
+        <v>-2177.691413024024</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1736.628604519331</v>
+        <v>-2174.151551085923</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1719.858417281049</v>
+        <v>-2169.741638885703</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1690.308367891274</v>
+        <v>-2123.713284825223</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1700.507481587672</v>
+        <v>-2049.803164880344</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1654.67649385704</v>
+        <v>-2089.833895136307</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1659.580741145644</v>
+        <v>-2029.402610677172</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1630.449773421754</v>
+        <v>-1987.007776549332</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-1619.49850490421</v>
+        <v>-1949.42257396238</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-1575.83738168671</v>
+        <v>-1956.92387013662</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-1576.796879137534</v>
+        <v>-1924.153469947438</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1550.454720828661</v>
+        <v>-1838.433833984309</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1551.534626330719</v>
+        <v>-1853.493714990738</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1538.322675874589</v>
+        <v>-1825.772375387238</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1497.703646103432</v>
+        <v>-1810.944616319614</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-235229.0198176883</v>
+        <v>-120564.401590576</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-943.9236716575465</v>
+        <v>-1056.297911279484</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-905.0731192231651</v>
+        <v>-979.6059198473241</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-885.5858522200264</v>
+        <v>-994.0326015537421</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-877.8659841823887</v>
+        <v>-970.1880308256394</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-832.4040565885035</v>
+        <v>-954.926692976502</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-859.569843804419</v>
+        <v>-950.627896101975</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-810.307639743969</v>
+        <v>-948.5970901564283</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-816.6176074696385</v>
+        <v>-905.3079597571698</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-803.2042212450203</v>
+        <v>-937.3302822632919</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-748.9609607342652</v>
+        <v>-933.6467693537436</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-737.2577685621496</v>
+        <v>-907.0469750376325</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-144720.647060957</v>
+        <v>-97389.8768613002</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-554.7685849450219</v>
+        <v>-583.8573515631775</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-519.8905208997523</v>
+        <v>-578.7545886724132</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-508.2126649320369</v>
+        <v>-564.5292012623235</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-487.3569692256493</v>
+        <v>-583.7367404009987</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-494.0940935274938</v>
+        <v>-565.6940152504022</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-436.100724839966</v>
+        <v>-572.4105958048521</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-430.7443410495528</v>
+        <v>-570.1974673141591</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-400.5923201520692</v>
+        <v>-544.8078325471338</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-368.4109549611602</v>
+        <v>-623.7811362626004</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-360.5045124696801</v>
+        <v>-564.9147515840659</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-349.7170867860659</v>
+        <v>-530.0309012664068</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-317.6790501135226</v>
+        <v>-521.2393322650861</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-283.8480826376658</v>
+        <v>-538.3087683898769</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-241.0219484461261</v>
+        <v>-516.5664574621981</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-206.0464387012174</v>
+        <v>-541.9055346698768</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-200.9369926211822</v>
+        <v>-524.3455492271912</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-141.2173729878966</v>
+        <v>-551.6833743825842</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-134.6035056886294</v>
+        <v>-526.2407911515031</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-54.23358532861474</v>
+        <v>-494.4129275368846</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-46.86929778843012</v>
+        <v>-487.7693973275818</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>19.32812075833269</v>
+        <v>-531.5932443372415</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>53.57937536370223</v>
+        <v>-525.1773050701582</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>59.17814271532538</v>
+        <v>-501.6173447071861</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-67043.43989004758</v>
+        <v>-111094.8303823507</v>
       </c>
     </row>
   </sheetData>
